--- a/medicine/Enfance/Els_Pelgrom/Els_Pelgrom.xlsx
+++ b/medicine/Enfance/Els_Pelgrom/Els_Pelgrom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Els Pelgrom (née Else Koch le 2 avril 1934 à Arnhem) est une auteure néerlandaise, essentiellement de livres pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famine aux Pays-Bas en 1944 la mena dans une ferme du Veluwe.
 Elle fut l'épouse du sculpteur Karl Pelgrom (nl).
@@ -543,7 +557,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Enfants de la huitième forêt
 J'irai toujours par les chemins
@@ -576,7 +592,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1985 : Gouden Griffel</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Els Pelgrom » (voir la liste des auteurs).
  Portail de la littérature d’enfance et de jeunesse   Portail des Pays-Bas                    </t>
